--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/MLX/mlx.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/MLX/mlx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\MLX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\MLX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C86284-8EDD-44A7-A1EB-28D33017DFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D511391-41CB-4709-A7BF-056FC93322C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLX Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -234,9 +234,6 @@
     <t>ENB</t>
   </si>
   <si>
-    <t>Enbridge Inc</t>
-  </si>
-  <si>
     <t>TRP</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>MMP</t>
   </si>
   <si>
-    <t>Magellan Midstream Partners LP</t>
-  </si>
-  <si>
     <t>Number of Holdings</t>
   </si>
   <si>
@@ -477,18 +471,6 @@
     <t>TOTAL - COMMON STOCKS</t>
   </si>
   <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>US DOLLARS</t>
-  </si>
-  <si>
-    <t>TOTAL - CURRENCY</t>
-  </si>
-  <si>
     <t>R-Squared</t>
   </si>
   <si>
@@ -501,9 +483,6 @@
     <t>Gibson Energy Inc.</t>
   </si>
   <si>
-    <t>Equitrans Midstream Corporation</t>
-  </si>
-  <si>
     <t>Keyera Corporation</t>
   </si>
   <si>
@@ -552,27 +531,15 @@
     <t>Western Midstream Partners L.P.</t>
   </si>
   <si>
-    <t>$12.8B</t>
-  </si>
-  <si>
-    <t>$5.9B</t>
-  </si>
-  <si>
     <t>Targa Resources Corp</t>
   </si>
   <si>
     <t>CATALYST ENERGY INFRASTRUCTURE FND (1984)</t>
   </si>
   <si>
-    <t>As of Date: 12/31/2020</t>
-  </si>
-  <si>
     <t>CATALYST ENERGY INFRASTRUCTURE FND</t>
   </si>
   <si>
-    <t>Kinder Morgan Inc.</t>
-  </si>
-  <si>
     <t>87968A104</t>
   </si>
   <si>
@@ -582,16 +549,49 @@
     <t>Tellurian Inc.</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>CANADIAN DOLLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash </t>
-  </si>
-  <si>
     <t>TOTAL - CATALYST ENERGY INFRASTRUCTURE FND</t>
+  </si>
+  <si>
+    <t>$14.8B</t>
+  </si>
+  <si>
+    <t>$7.4B</t>
+  </si>
+  <si>
+    <t>Kinder Morgan Inc</t>
+  </si>
+  <si>
+    <t>Equitrans Midstream Corp</t>
+  </si>
+  <si>
+    <t>As of Date: 3/31/2021</t>
+  </si>
+  <si>
+    <t>Enbridge Inc.</t>
+  </si>
+  <si>
+    <t>65342K105</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>NextDecade Corporation</t>
+  </si>
+  <si>
+    <t>MONEY MARKET FUNDS</t>
+  </si>
+  <si>
+    <t>8AMMF0A92</t>
+  </si>
+  <si>
+    <t>US BANK MMDA - USBGFS5</t>
+  </si>
+  <si>
+    <t>TOTAL - MONEY MARKET FUNDS</t>
+  </si>
+  <si>
+    <t>Magellan Midstream Partners L.P.</t>
   </si>
 </sst>
 </file>
@@ -1693,11 +1693,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="21" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1764,15 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1965,6 +1963,189 @@
         <a:xfrm>
           <a:off x="6621780" y="0"/>
           <a:ext cx="502920" cy="481965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39801FEB-0596-468F-ACDA-DBF2732E73B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1866900" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2ACA5A8-3626-46F4-89DB-CC3788FEFAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="502920" cy="481965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE8B936-158F-4456-BE34-6DBC12C327E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1181100" cy="478155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2283,30 +2464,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="7"/>
+    <col min="1" max="1" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
     <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" style="8" customWidth="1"/>
     <col min="14" max="14" width="13" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="7"/>
+    <col min="17" max="17" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="32.25" customHeight="1">
@@ -2314,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1</v>
@@ -2329,13 +2512,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="4">
-        <v>44196</v>
-      </c>
-      <c r="R1" s="136" t="s">
+        <v>44286</v>
+      </c>
+      <c r="R1" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="138"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="141"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="9">
@@ -2352,8 +2535,8 @@
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="131">
-        <v>7.2300000000000001E-4</v>
+      <c r="H2" s="133">
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="I2" s="82"/>
       <c r="J2" s="83"/>
@@ -2363,11 +2546,11 @@
       <c r="N2" s="83"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="R2" s="139" t="s">
+      <c r="R2" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="144"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="9">
@@ -2392,8 +2575,8 @@
         <v>4</v>
       </c>
       <c r="H3" s="14">
-        <f>(COUNTA(C4:C211))+I3</f>
-        <v>72.258064516129039</v>
+        <f>(COUNTA(C4:C214))+I3</f>
+        <v>75.258064516129039</v>
       </c>
       <c r="I3" s="49">
         <f>8/31</f>
@@ -2405,13 +2588,13 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="R3" s="142" t="s">
+      <c r="R3" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1">
+      <c r="S3" s="146"/>
+      <c r="T3" s="147"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="9">
         <v>42034</v>
       </c>
@@ -2429,11 +2612,11 @@
       <c r="E4" s="10">
         <v>-3.05182470606199E-2</v>
       </c>
-      <c r="R4" s="145" t="s">
+      <c r="R4" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="146"/>
-      <c r="T4" s="147"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="150"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9">
@@ -2483,11 +2666,11 @@
         <v>-4.2367724296267902E-2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" s="23">
         <f>((S36-H2)-H7*(S36-H2))*100</f>
-        <v>-1.3313070130699822</v>
+        <v>-0.93149427058060175</v>
       </c>
       <c r="I6" s="24"/>
       <c r="N6" s="7"/>
@@ -2511,16 +2694,16 @@
         <v>6.1828695021145297E-2</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="21">
-        <f>COVAR(C3:C75,E3:E75)/VAR(E3:E75)</f>
-        <v>0.87817368925640271</v>
+        <f>COVAR(C3:C78,E3:E78)/VAR(E3:E78)</f>
+        <v>0.8798007797456453</v>
       </c>
       <c r="I7" s="21"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="A8" s="9">
         <v>42153</v>
       </c>
@@ -2539,11 +2722,11 @@
         <v>-3.5750659452845397E-2</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="25">
-        <f>RSQ(C3:C75,E3:E75)</f>
-        <v>0.83741098380809953</v>
+        <f>RSQ(C3:C78,E3:E78)</f>
+        <v>0.84026502624199717</v>
       </c>
       <c r="I8" s="25"/>
       <c r="N8" s="7"/>
@@ -2567,19 +2750,19 @@
         <v>-8.2826202447824293E-2</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="21">
         <f>(S36-$H$2)/H11</f>
-        <v>-0.31199238792220774</v>
+        <v>-0.22372638008207366</v>
       </c>
       <c r="I9" s="22">
         <f>(T36-$H$2)/I11</f>
-        <v>-0.30285871895534711</v>
+        <v>-0.21226465420386492</v>
       </c>
       <c r="N9" s="7"/>
       <c r="R9" s="69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S9" s="70"/>
       <c r="T9" s="71"/>
@@ -2607,21 +2790,21 @@
       </c>
       <c r="H10" s="19">
         <f>S35</f>
-        <v>-0.49940000000000001</v>
+        <v>-0.39629999999999999</v>
       </c>
       <c r="I10" s="19">
         <f>T35</f>
-        <v>-0.49854495394720588</v>
+        <v>-0.38847013359014226</v>
       </c>
       <c r="N10" s="7"/>
       <c r="R10" s="105" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S10" s="129" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T10" s="108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2643,25 +2826,25 @@
         <v>-4.9615965180086499E-2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" s="19">
-        <f>STDEV(C2:C106)*SQRT(12)</f>
-        <v>0.35026208533515252</v>
+        <f>STDEV(C2:C109)*SQRT(12)</f>
+        <v>0.34638680651609655</v>
       </c>
       <c r="I11" s="20">
-        <f>STDEV(E2:E106)*SQRT(12)</f>
-        <v>0.35999102265442162</v>
+        <f>STDEV(E2:E109)*SQRT(12)</f>
+        <v>0.35614988974233797</v>
       </c>
       <c r="N11" s="7"/>
       <c r="R11" s="104">
-        <v>44133</v>
+        <v>44285</v>
       </c>
       <c r="S11" s="109">
-        <v>0.11</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="T11" s="110">
-        <v>10.79</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2683,16 +2866,16 @@
         <v>-0.152845790594415</v>
       </c>
       <c r="R12" s="104">
-        <v>44162</v>
+        <v>44252</v>
       </c>
       <c r="S12" s="109">
-        <v>0.10920000000000001</v>
+        <v>0.1108</v>
       </c>
       <c r="T12" s="110">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="9">
         <v>42307</v>
       </c>
@@ -2712,13 +2895,13 @@
       </c>
       <c r="N13" s="7"/>
       <c r="R13" s="106">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="S13" s="107">
-        <v>0.1125</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="T13" s="111">
-        <v>12.59</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2759,7 +2942,7 @@
         <v>3YR</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>10</v>
@@ -2789,31 +2972,31 @@
       </c>
       <c r="H15" s="51">
         <f t="shared" ref="H15:M16" si="2">H23*100</f>
-        <v>19.739999999999998</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="I15" s="51">
         <f t="shared" si="2"/>
-        <v>-29.4</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="J15" s="51">
         <f t="shared" si="2"/>
-        <v>-29.4</v>
+        <v>82.57</v>
       </c>
       <c r="K15" s="51">
         <f t="shared" si="2"/>
-        <v>-13.76</v>
+        <v>-3.6999999999999997</v>
       </c>
       <c r="L15" s="51">
         <f t="shared" si="2"/>
-        <v>-1.8900000000000001</v>
+        <v>1.8800000000000001</v>
       </c>
       <c r="M15" s="51">
         <f t="shared" si="2"/>
-        <v>-11.08</v>
+        <v>-7.9799999999999995</v>
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="A16" s="9">
         <v>42400</v>
       </c>
@@ -2836,27 +3019,27 @@
       </c>
       <c r="H16" s="51">
         <f>H24*100</f>
-        <v>19.52</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="2"/>
-        <v>-29.830000000000002</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="J16" s="51">
         <f t="shared" si="2"/>
-        <v>-29.830000000000002</v>
+        <v>81.089999999999989</v>
       </c>
       <c r="K16" s="51">
         <f t="shared" si="2"/>
-        <v>-14.41</v>
+        <v>-4.43</v>
       </c>
       <c r="L16" s="51">
         <f t="shared" si="2"/>
-        <v>-2.6100000000000003</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="M16" s="51">
         <f>M24*100</f>
-        <v>-11.709999999999999</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -2884,37 +3067,37 @@
       </c>
       <c r="H17" s="51">
         <f>H25*100</f>
-        <v>19.739999999999998</v>
+        <v>20.61</v>
       </c>
       <c r="I17" s="51">
         <f>I25*100</f>
-        <v>-29.189999999999998</v>
+        <v>20.61</v>
       </c>
       <c r="J17" s="51">
         <f>J25*100</f>
-        <v>-29.189999999999998</v>
+        <v>83.09</v>
       </c>
       <c r="K17" s="51">
         <f>K25*100</f>
-        <v>-13.530000000000001</v>
+        <v>-3.5000000000000004</v>
       </c>
       <c r="L17" s="51">
         <f>L25*100</f>
-        <v>-1.6199999999999999</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M17" s="51">
         <f>M25*100</f>
-        <v>-10.85</v>
+        <v>-7.7299999999999995</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="150" t="str">
+      <c r="S17" s="153" t="str">
         <f>B1</f>
         <v>MLXIX</v>
       </c>
-      <c r="T17" s="148" t="str">
+      <c r="T17" s="151" t="str">
         <f>D1</f>
         <v>Alerian MLP TR Index</v>
       </c>
@@ -2943,34 +3126,34 @@
       </c>
       <c r="H18" s="2">
         <f>T29*100</f>
-        <v>32.448438185337189</v>
+        <v>21.951084394008618</v>
       </c>
       <c r="I18" s="2">
         <f>T31*100</f>
-        <v>-28.688077002763634</v>
+        <v>21.951084394008614</v>
       </c>
       <c r="J18" s="2">
         <f>T32*100</f>
-        <v>-28.688077002763634</v>
+        <v>103.13393935541293</v>
       </c>
       <c r="K18" s="2">
         <f>T33*100</f>
-        <v>-12.692786740579454</v>
+        <v>-2.9840649754766191</v>
       </c>
       <c r="L18" s="2">
         <f>T34*100</f>
-        <v>-5.946482222300375</v>
+        <v>-1.3022077738319093</v>
       </c>
       <c r="M18" s="2">
         <f>T36*100</f>
-        <v>-10.830341995654347</v>
+        <v>-7.5421033190901987</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="149"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="152"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9">
@@ -2995,27 +3178,27 @@
       </c>
       <c r="H19" s="51">
         <f t="shared" ref="H19:M19" si="3">H26*100</f>
-        <v>12.839999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="3"/>
-        <v>-33.520000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="J19" s="51">
         <f t="shared" si="3"/>
-        <v>-33.520000000000003</v>
+        <v>72.05</v>
       </c>
       <c r="K19" s="51">
         <f t="shared" si="3"/>
-        <v>-15.43</v>
+        <v>-5.6000000000000005</v>
       </c>
       <c r="L19" s="51">
         <f t="shared" si="3"/>
-        <v>-3.05</v>
+        <v>0.67</v>
       </c>
       <c r="M19" s="51">
         <f t="shared" si="3"/>
-        <v>-11.95</v>
+        <v>-8.85</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -3024,15 +3207,15 @@
       </c>
       <c r="R19" s="29">
         <f>EOMONTH($H$1,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="S19" s="30">
-        <f t="shared" ref="S19:S26" si="4">SUMIF($A$2:$A$318,$R19,$B$2:$B$318)</f>
-        <v>4180</v>
+        <f t="shared" ref="S19:S26" si="4">SUMIF($A$2:$A$321,$R19,$B$2:$B$321)</f>
+        <v>5006</v>
       </c>
       <c r="T19" s="38">
-        <f t="shared" ref="T19:T26" si="5">SUMIF($A$2:$A$318,$R19,$D$2:$D$318)</f>
-        <v>3786.0397066449373</v>
+        <f t="shared" ref="T19:T26" si="5">SUMIF($A$2:$A$321,$R19,$D$2:$D$321)</f>
+        <v>5014.5504605279411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -3065,15 +3248,15 @@
       </c>
       <c r="R20" s="29">
         <f>EOMONTH($H$1,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="S20" s="30">
         <f t="shared" si="4"/>
-        <v>4583</v>
+        <v>4180</v>
       </c>
       <c r="T20" s="38">
         <f t="shared" si="5"/>
-        <v>4521.0447687483029</v>
+        <v>3786.0397066449373</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3101,18 +3284,18 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="Q21" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R21" s="90">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="S21" s="30">
         <f t="shared" si="4"/>
-        <v>7069</v>
+        <v>5006</v>
       </c>
       <c r="T21" s="38">
         <f t="shared" si="5"/>
-        <v>7031.8542114230686</v>
+        <v>5014.5504605279411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3151,7 +3334,7 @@
         <v>3YR</v>
       </c>
       <c r="L22" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M22" s="53" t="str">
         <f>M14</f>
@@ -3159,19 +3342,19 @@
       </c>
       <c r="N22" s="7"/>
       <c r="Q22" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R22" s="29">
         <f>EOMONTH($H$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="4"/>
-        <v>7069</v>
+        <v>3297</v>
       </c>
       <c r="T22" s="38">
         <f t="shared" si="5"/>
-        <v>7031.8542114230686</v>
+        <v>3010.4760846482459</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3196,41 +3379,41 @@
         <v>11</v>
       </c>
       <c r="H23" s="125">
-        <v>0.19739999999999999</v>
+        <v>0.2044</v>
       </c>
       <c r="I23" s="125">
-        <v>-0.29399999999999998</v>
+        <v>0.2044</v>
       </c>
       <c r="J23" s="125">
-        <v>-0.29399999999999998</v>
+        <v>0.82569999999999999</v>
       </c>
       <c r="K23" s="125">
-        <v>-0.1376</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="L23" s="125">
-        <v>-1.89E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="M23" s="125">
-        <v>-0.1108</v>
+        <v>-7.9799999999999996E-2</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="O23" s="12"/>
       <c r="Q23" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R23" s="29">
         <f>EOMONTH($H$1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="4"/>
-        <v>7741.93</v>
+        <v>6717.36</v>
       </c>
       <c r="T23" s="38">
         <f t="shared" si="5"/>
-        <v>7534.9717263007169</v>
+        <v>6697.1257130157828</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3255,41 +3438,41 @@
         <v>12</v>
       </c>
       <c r="H24" s="125">
-        <v>0.19520000000000001</v>
+        <v>0.2024</v>
       </c>
       <c r="I24" s="125">
-        <v>-0.29830000000000001</v>
+        <v>0.2024</v>
       </c>
       <c r="J24" s="125">
-        <v>-0.29830000000000001</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="K24" s="125">
-        <v>-0.14410000000000001</v>
+        <v>-4.4299999999999999E-2</v>
       </c>
       <c r="L24" s="125">
-        <v>-2.6100000000000002E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="M24" s="125">
-        <v>-0.1171</v>
+        <v>-8.6300000000000002E-2</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="O24" s="12"/>
       <c r="Q24" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R24" s="29">
         <f>EOMONTH($H$1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="4"/>
-        <v>5431.47</v>
+        <v>5420.6</v>
       </c>
       <c r="T24" s="38">
         <f t="shared" si="5"/>
-        <v>6813.288638664596</v>
+        <v>6529.5083586438532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -3314,22 +3497,22 @@
         <v>14</v>
       </c>
       <c r="H25" s="125">
-        <v>0.19739999999999999</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="I25" s="125">
-        <v>-0.29189999999999999</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="J25" s="125">
-        <v>-0.29189999999999999</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="K25" s="125">
-        <v>-0.1353</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="L25" s="125">
-        <v>-1.6199999999999999E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="M25" s="125">
-        <v>-0.1085</v>
+        <v>-7.7299999999999994E-2</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -3349,7 +3532,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1">
       <c r="A26" s="9">
         <v>42704</v>
       </c>
@@ -3371,22 +3554,22 @@
         <v>15</v>
       </c>
       <c r="H26" s="125">
-        <v>0.12839999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="I26" s="125">
-        <v>-0.3352</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J26" s="125">
-        <v>-0.3352</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="K26" s="125">
-        <v>-0.15429999999999999</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="L26" s="125">
-        <v>-3.0499999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="M26" s="125">
-        <v>-0.1195</v>
+        <v>-8.8499999999999995E-2</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>13</v>
@@ -3397,18 +3580,18 @@
       </c>
       <c r="R26" s="40">
         <f>H1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="S26" s="41">
         <f t="shared" si="4"/>
-        <v>5006</v>
+        <v>6037</v>
       </c>
       <c r="T26" s="42">
         <f t="shared" si="5"/>
-        <v>5014.5504605279411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1">
+        <v>6115.2986640985773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1">
       <c r="A27" s="9">
         <v>42735</v>
       </c>
@@ -3454,8 +3637,8 @@
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="156"/>
       <c r="S28" s="43" t="str">
         <f>S17</f>
         <v>MLXIX</v>
@@ -3485,18 +3668,18 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="Q29" s="134" t="str">
+      <c r="Q29" s="137" t="str">
         <f>Q19</f>
         <v>3MOS</v>
       </c>
-      <c r="R29" s="135"/>
+      <c r="R29" s="138"/>
       <c r="S29" s="33">
         <f>($S$26-S19)/S19</f>
-        <v>0.19760765550239234</v>
+        <v>0.20595285657211346</v>
       </c>
       <c r="T29" s="45">
         <f>($T$26-T19)/T19</f>
-        <v>0.32448438185337186</v>
+        <v>0.21951084394008619</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3519,18 +3702,18 @@
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="Q30" s="134" t="str">
+      <c r="Q30" s="137" t="str">
         <f>Q20</f>
         <v>6MOS</v>
       </c>
-      <c r="R30" s="135"/>
+      <c r="R30" s="138"/>
       <c r="S30" s="33">
         <f>S26/S20-1</f>
-        <v>9.2297621645210493E-2</v>
+        <v>0.44425837320574169</v>
       </c>
       <c r="T30" s="45">
         <f>($T$26-T20)/T20</f>
-        <v>0.10915744413569926</v>
+        <v>0.61522306629946888</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3553,18 +3736,18 @@
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="Q31" s="134" t="str">
+      <c r="Q31" s="137" t="str">
         <f>Q21</f>
         <v>YTD</v>
       </c>
-      <c r="R31" s="135"/>
+      <c r="R31" s="138"/>
       <c r="S31" s="33">
         <f>S26/S21-1</f>
-        <v>-0.29183760079219123</v>
+        <v>0.20595285657211337</v>
       </c>
       <c r="T31" s="45">
         <f>T26/T21-1</f>
-        <v>-0.28688077002763634</v>
+        <v>0.21951084394008613</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3587,18 +3770,18 @@
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="Q32" s="134" t="str">
+      <c r="Q32" s="137" t="str">
         <f>Q22</f>
         <v>1YR</v>
       </c>
-      <c r="R32" s="135"/>
+      <c r="R32" s="138"/>
       <c r="S32" s="33">
         <f>S26/S22-1</f>
-        <v>-0.29183760079219123</v>
+        <v>0.83105853806490759</v>
       </c>
       <c r="T32" s="45">
         <f>T26/T22-1</f>
-        <v>-0.28688077002763634</v>
+        <v>1.0313393935541293</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3623,18 +3806,18 @@
       <c r="I33" s="76"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="Q33" s="134" t="str">
+      <c r="Q33" s="137" t="str">
         <f>Q23</f>
         <v>3YR</v>
       </c>
-      <c r="R33" s="135"/>
+      <c r="R33" s="138"/>
       <c r="S33" s="33">
         <f>(S26/S23)^(1/3)-1</f>
-        <v>-0.13526998241762822</v>
+        <v>-3.4969919664114002E-2</v>
       </c>
       <c r="T33" s="45">
         <f>(T26/T23)^(1/3)-1</f>
-        <v>-0.12692786740579454</v>
+        <v>-2.9840649754766191E-2</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3664,17 +3847,17 @@
       <c r="M34" s="50"/>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
-      <c r="Q34" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="R34" s="135"/>
+      <c r="Q34" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="R34" s="138"/>
       <c r="S34" s="33">
         <f>(S26/S24)^(1/5)-1</f>
-        <v>-1.618216343141976E-2</v>
+        <v>2.1773801345006838E-2</v>
       </c>
       <c r="T34" s="45">
         <f>(T26/T24)^(1/5)-1</f>
-        <v>-5.9464822223003755E-2</v>
+        <v>-1.3022077738319093E-2</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3704,20 +3887,20 @@
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
-      <c r="Q35" s="134" t="s">
+      <c r="Q35" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="135"/>
+      <c r="R35" s="138"/>
       <c r="S35" s="33">
         <f>($S$26-S25)/S25</f>
-        <v>-0.49940000000000001</v>
+        <v>-0.39629999999999999</v>
       </c>
       <c r="T35" s="45">
         <f>($T$26-T25)/T25</f>
-        <v>-0.49854495394720588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1">
+        <v>-0.38847013359014226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="9">
         <v>43008</v>
       </c>
@@ -3744,17 +3927,17 @@
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
-      <c r="Q36" s="132" t="s">
+      <c r="Q36" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="R36" s="133"/>
+      <c r="R36" s="136"/>
       <c r="S36" s="88">
         <f>(S26/S25)^(12/$H$3)-1</f>
-        <v>-0.10855610440232633</v>
+        <v>-7.7318866330035929E-2</v>
       </c>
       <c r="T36" s="89">
         <f>(T26/T25)^(12/$H$3)-1</f>
-        <v>-0.10830341995654347</v>
+        <v>-7.5421033190901987E-2</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3788,7 +3971,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9">
-        <f t="shared" ref="A38:A75" si="7">EOMONTH(A37,1)</f>
+        <f t="shared" ref="A38:A78" si="7">EOMONTH(A37,1)</f>
         <v>43069</v>
       </c>
       <c r="B38" s="86">
@@ -4555,7 +4738,7 @@
         <f t="shared" si="7"/>
         <v>43861</v>
       </c>
-      <c r="B64" s="130">
+      <c r="B64" s="134">
         <v>6741</v>
       </c>
       <c r="C64" s="10">
@@ -4585,7 +4768,7 @@
         <f t="shared" si="7"/>
         <v>43890</v>
       </c>
-      <c r="B65" s="130">
+      <c r="B65" s="134">
         <v>5912</v>
       </c>
       <c r="C65" s="10">
@@ -4615,7 +4798,7 @@
         <f t="shared" si="7"/>
         <v>43921</v>
       </c>
-      <c r="B66" s="130">
+      <c r="B66" s="134">
         <v>3297</v>
       </c>
       <c r="C66" s="10">
@@ -4645,7 +4828,7 @@
         <f t="shared" si="7"/>
         <v>43951</v>
       </c>
-      <c r="B67" s="130">
+      <c r="B67" s="134">
         <v>4399</v>
       </c>
       <c r="C67" s="10">
@@ -4675,15 +4858,15 @@
         <f t="shared" si="7"/>
         <v>43982</v>
       </c>
-      <c r="B68" s="130">
+      <c r="B68" s="134">
         <v>4727</v>
       </c>
       <c r="C68" s="10">
-        <f t="shared" ref="C68:C75" si="8">B68/B67-1</f>
+        <f t="shared" ref="C68:C78" si="8">B68/B67-1</f>
         <v>7.45624005455785E-2</v>
       </c>
       <c r="D68" s="81">
-        <f t="shared" ref="D68:D75" si="9">D67*(1+E68)</f>
+        <f t="shared" ref="D68:D78" si="9">D67*(1+E68)</f>
         <v>4907.3758550016055</v>
       </c>
       <c r="E68" s="87">
@@ -4705,7 +4888,7 @@
         <f t="shared" si="7"/>
         <v>44012</v>
       </c>
-      <c r="B69" s="130">
+      <c r="B69" s="134">
         <v>4583</v>
       </c>
       <c r="C69" s="10">
@@ -4735,7 +4918,7 @@
         <f t="shared" si="7"/>
         <v>44043</v>
       </c>
-      <c r="B70" s="130">
+      <c r="B70" s="134">
         <v>4572</v>
       </c>
       <c r="C70" s="10">
@@ -4765,7 +4948,7 @@
         <f t="shared" si="7"/>
         <v>44074</v>
       </c>
-      <c r="B71" s="130">
+      <c r="B71" s="134">
         <v>4700</v>
       </c>
       <c r="C71" s="10">
@@ -4795,7 +4978,7 @@
         <f t="shared" si="7"/>
         <v>44104</v>
       </c>
-      <c r="B72" s="130">
+      <c r="B72" s="134">
         <v>4180</v>
       </c>
       <c r="C72" s="10">
@@ -4825,7 +5008,7 @@
         <f t="shared" si="7"/>
         <v>44135</v>
       </c>
-      <c r="B73" s="130">
+      <c r="B73" s="134">
         <v>4199</v>
       </c>
       <c r="C73" s="10">
@@ -4855,7 +5038,7 @@
         <f t="shared" si="7"/>
         <v>44165</v>
       </c>
-      <c r="B74" s="130">
+      <c r="B74" s="134">
         <v>4981</v>
       </c>
       <c r="C74" s="10">
@@ -4885,7 +5068,7 @@
         <f t="shared" si="7"/>
         <v>44196</v>
       </c>
-      <c r="B75" s="130">
+      <c r="B75" s="134">
         <v>5006</v>
       </c>
       <c r="C75" s="10">
@@ -4904,8 +5087,24 @@
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="C76" s="10"/>
-      <c r="E76" s="10"/>
+      <c r="A76" s="9">
+        <f t="shared" si="7"/>
+        <v>44227</v>
+      </c>
+      <c r="B76" s="134">
+        <v>5279</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="8"/>
+        <v>5.4534558529764299E-2</v>
+      </c>
+      <c r="D76" s="81">
+        <f t="shared" si="9"/>
+        <v>5307.5783391362338</v>
+      </c>
+      <c r="E76" s="87">
+        <v>5.8435522967584586E-2</v>
+      </c>
       <c r="H76" s="74"/>
       <c r="I76" s="7"/>
       <c r="J76" s="77"/>
@@ -4915,8 +5114,24 @@
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="C77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="A77" s="9">
+        <f t="shared" si="7"/>
+        <v>44255</v>
+      </c>
+      <c r="B77" s="134">
+        <v>5693</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="8"/>
+        <v>7.8423943928774387E-2</v>
+      </c>
+      <c r="D77" s="81">
+        <f t="shared" si="9"/>
+        <v>5720.0656838778195</v>
+      </c>
+      <c r="E77" s="87">
+        <v>7.7716675738923602E-2</v>
+      </c>
       <c r="H77" s="75"/>
       <c r="I77" s="7"/>
       <c r="J77" s="77"/>
@@ -4926,8 +5141,24 @@
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="C78" s="10"/>
-      <c r="E78" s="10"/>
+      <c r="A78" s="9">
+        <f t="shared" si="7"/>
+        <v>44286</v>
+      </c>
+      <c r="B78" s="134">
+        <v>6037</v>
+      </c>
+      <c r="C78" s="10">
+        <f t="shared" si="8"/>
+        <v>6.0425083435798443E-2</v>
+      </c>
+      <c r="D78" s="81">
+        <f t="shared" si="9"/>
+        <v>6115.2986640985773</v>
+      </c>
+      <c r="E78" s="87">
+        <v>6.9095881422259531E-2</v>
+      </c>
       <c r="H78" s="47"/>
       <c r="I78" s="47"/>
       <c r="J78" s="77"/>
@@ -5312,6 +5543,18 @@
     <row r="125" spans="3:5">
       <c r="C125" s="10"/>
       <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="3:5">
+      <c r="C126" s="10"/>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="3:5">
+      <c r="C127" s="10"/>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="3:5">
+      <c r="C128" s="10"/>
+      <c r="E128" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5341,17 +5584,17 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="3" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="10"/>
-    <col min="6" max="16384" width="9.109375" style="7"/>
+    <col min="4" max="4" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -5370,102 +5613,102 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="59">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="60">
-        <v>0.10299999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="E5" s="60">
-        <v>9.4E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E6" s="60">
-        <v>0.09</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="60">
-        <v>7.9000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="63"/>
       <c r="D8" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="60">
-        <v>7.4999999999999997E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="63"/>
       <c r="D9" s="58" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="E9" s="60">
-        <v>4.7E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="58" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E10" s="60">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="58" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="E11" s="60">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="60">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="58" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="E13" s="60">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5488,38 +5731,39 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45" customWidth="1"/>
+    <col min="12" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38.1" customHeight="1"/>
     <row r="2" spans="1:14" ht="3" customHeight="1"/>
-    <row r="3" spans="1:14" ht="12.9" customHeight="1">
+    <row r="3" spans="1:14" ht="12.95" customHeight="1">
       <c r="A3" s="124"/>
       <c r="C3" s="124" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.9" customHeight="1">
+    <row r="4" spans="1:14" ht="12.95" customHeight="1">
       <c r="A4" s="124"/>
       <c r="C4" s="124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.9" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.95" customHeight="1">
       <c r="A5" s="124"/>
       <c r="C5" s="124" t="s">
         <v>170</v>
@@ -5528,13 +5772,13 @@
         <v>33</v>
       </c>
       <c r="J5" s="92">
-        <v>16.219923004009203</v>
+        <v>21.830826556563871</v>
       </c>
       <c r="K5" s="92">
-        <v>12764.982137884837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="12.9" customHeight="1">
+        <v>14788.496761893903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.95" customHeight="1">
       <c r="A6" s="124"/>
       <c r="C6" s="124" t="s">
         <v>20</v>
@@ -5543,13 +5787,13 @@
         <v>34</v>
       </c>
       <c r="J6" s="92">
-        <v>14.2291643428304</v>
+        <v>18.801979978398901</v>
       </c>
       <c r="K6" s="92">
-        <v>5918.3119405800007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="12.9" customHeight="1" thickBot="1">
+        <v>7383.4598377299999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
       <c r="A7" s="112" t="s">
         <v>21</v>
       </c>
@@ -5586,9 +5830,9 @@
       </c>
       <c r="N7" s="93"/>
     </row>
-    <row r="8" spans="1:14" ht="12.9" customHeight="1">
+    <row r="8" spans="1:14" ht="12.95" customHeight="1">
       <c r="A8" s="113" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
@@ -5603,9 +5847,9 @@
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
     </row>
-    <row r="9" spans="1:14" ht="12.9" customHeight="1">
+    <row r="9" spans="1:14" ht="12.95" customHeight="1">
       <c r="A9" s="113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
@@ -5617,10 +5861,10 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
       <c r="L9" s="93"/>
-      <c r="M9" s="154"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="97"/>
     </row>
-    <row r="10" spans="1:14" ht="12.9" customHeight="1">
+    <row r="10" spans="1:14" ht="12.95" customHeight="1">
       <c r="A10" s="114" t="s">
         <v>44</v>
       </c>
@@ -5631,16 +5875,16 @@
         <v>48</v>
       </c>
       <c r="D10" s="115">
-        <v>462176</v>
+        <v>491542</v>
       </c>
       <c r="E10" s="116">
-        <v>20.05</v>
+        <v>23.69</v>
       </c>
       <c r="F10" s="117">
-        <v>11006519.32</v>
+        <v>11615990.880000001</v>
       </c>
       <c r="G10" s="117">
-        <v>9266628.8000000007</v>
+        <v>11644629.98</v>
       </c>
       <c r="H10" s="99">
         <v>1</v>
@@ -5649,82 +5893,82 @@
         <v>18</v>
       </c>
       <c r="J10" s="101">
-        <v>16.071316387280461</v>
+        <v>20.698418435371895</v>
       </c>
       <c r="K10" s="101">
-        <v>24374.869125944999</v>
+        <v>28832.258178255001</v>
       </c>
       <c r="L10" s="100"/>
-      <c r="M10" s="155">
-        <v>0.10304463598310891</v>
+      <c r="M10" s="131">
+        <v>9.8519106701868198E-2</v>
       </c>
       <c r="N10" s="102">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.9" customHeight="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.95" customHeight="1">
       <c r="A11" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>81</v>
-      </c>
       <c r="D11" s="115">
-        <v>135246</v>
+        <v>144634</v>
       </c>
       <c r="E11" s="116">
-        <v>60.03</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="F11" s="117">
-        <v>8253376.7699999996</v>
+        <v>8890165.7100000009</v>
       </c>
       <c r="G11" s="117">
-        <v>8118817.3799999999</v>
+        <v>10415094.34</v>
       </c>
       <c r="H11" s="99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="100" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="101">
-        <v>14.2291643428304</v>
+        <v>25.578223188565829</v>
       </c>
       <c r="K11" s="101">
-        <v>14918.223877024999</v>
+        <v>18046.200270300003</v>
       </c>
       <c r="L11" s="100"/>
-      <c r="M11" s="155">
-        <v>9.0281007213263792E-2</v>
+      <c r="M11" s="131">
+        <v>8.811665053804342E-2</v>
       </c>
       <c r="N11" s="102">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.9" customHeight="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.95" customHeight="1">
       <c r="A12" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" s="115">
-        <v>285885</v>
+        <v>302055</v>
       </c>
       <c r="E12" s="116">
-        <v>23.66</v>
+        <v>28.84</v>
       </c>
       <c r="F12" s="117">
-        <v>9964215.6500000004</v>
+        <v>10406066.67</v>
       </c>
       <c r="G12" s="117">
-        <v>6764039.0999999996</v>
+        <v>8711266.1999999993</v>
       </c>
       <c r="H12" s="99">
         <v>5</v>
@@ -5736,37 +5980,37 @@
         <v>39</v>
       </c>
       <c r="K12" s="101">
-        <v>13171.345334999998</v>
+        <v>16031.272551799999</v>
       </c>
       <c r="L12" s="100"/>
-      <c r="M12" s="155">
-        <v>7.521591313067548E-2</v>
+      <c r="M12" s="131">
+        <v>7.3701454296118199E-2</v>
       </c>
       <c r="N12" s="102">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="12.9" customHeight="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.95" customHeight="1">
       <c r="A13" s="114" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="114" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="D13" s="115">
-        <v>159585</v>
+        <v>113185</v>
       </c>
       <c r="E13" s="116">
-        <v>26.38</v>
+        <v>50.66</v>
       </c>
       <c r="F13" s="117">
-        <v>5417542.5199999996</v>
+        <v>3214839.6</v>
       </c>
       <c r="G13" s="117">
-        <v>4209852.3</v>
+        <v>5733952.0999999996</v>
       </c>
       <c r="H13" s="99">
         <v>6</v>
@@ -5775,40 +6019,40 @@
         <v>18</v>
       </c>
       <c r="J13" s="101">
-        <v>31.49329180756466</v>
+        <v>19.625676414189599</v>
       </c>
       <c r="K13" s="101">
-        <v>5981.8240265200002</v>
+        <v>22680.813837149999</v>
       </c>
       <c r="L13" s="100"/>
-      <c r="M13" s="155">
-        <v>4.681343206454474E-2</v>
+      <c r="M13" s="131">
+        <v>4.851196128460418E-2</v>
       </c>
       <c r="N13" s="102">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.9" customHeight="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.95" customHeight="1">
       <c r="A14" s="114" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D14" s="115">
-        <v>109087</v>
+        <v>318890</v>
       </c>
       <c r="E14" s="116">
-        <v>38.380000000000003</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="F14" s="117">
-        <v>3038074.55</v>
+        <v>5550838.5</v>
       </c>
       <c r="G14" s="117">
-        <v>4186759.06</v>
+        <v>5309518.5</v>
       </c>
       <c r="H14" s="99">
         <v>7</v>
@@ -5817,85 +6061,85 @@
         <v>18</v>
       </c>
       <c r="J14" s="101">
-        <v>14.034942372021286</v>
+        <v>18.801979978398901</v>
       </c>
       <c r="K14" s="101">
-        <v>16667.125012070002</v>
+        <v>37714.418414100008</v>
       </c>
       <c r="L14" s="100"/>
-      <c r="M14" s="155">
-        <v>4.6556635924240669E-2</v>
+      <c r="M14" s="131">
+        <v>4.4921051208622706E-2</v>
       </c>
       <c r="N14" s="102">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.9" customHeight="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.95" customHeight="1">
       <c r="A15" s="114" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="D15" s="115">
-        <v>100375</v>
+        <v>644895</v>
       </c>
       <c r="E15" s="116">
-        <v>40.72</v>
+        <v>8.16</v>
       </c>
       <c r="F15" s="117">
-        <v>4364409.7</v>
+        <v>7739067.04</v>
       </c>
       <c r="G15" s="117">
-        <v>4087270</v>
+        <v>5262343.2</v>
       </c>
       <c r="H15" s="99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="101" t="s">
-        <v>39</v>
+      <c r="J15" s="101">
+        <v>6.54209699821482</v>
       </c>
       <c r="K15" s="101">
-        <v>38345.212273179997</v>
+        <v>3560.40511857</v>
       </c>
       <c r="L15" s="100"/>
-      <c r="M15" s="155">
-        <v>4.5450320543181953E-2</v>
+      <c r="M15" s="131">
+        <v>4.4521925738566968E-2</v>
       </c>
       <c r="N15" s="102">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.9" customHeight="1">
+    <row r="16" spans="1:14" ht="12.95" customHeight="1">
       <c r="A16" s="114" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D16" s="115">
-        <v>127738</v>
+        <v>113445</v>
       </c>
       <c r="E16" s="116">
-        <v>31.99</v>
+        <v>45.75</v>
       </c>
       <c r="F16" s="117">
-        <v>4344269.0999999996</v>
+        <v>4913207.82</v>
       </c>
       <c r="G16" s="117">
-        <v>4086338.62</v>
+        <v>5190108.75</v>
       </c>
       <c r="H16" s="99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="100" t="s">
         <v>18</v>
@@ -5904,197 +6148,199 @@
         <v>39</v>
       </c>
       <c r="K16" s="101">
-        <v>64665.244681589997</v>
+        <v>45270.963037560003</v>
       </c>
       <c r="L16" s="100"/>
-      <c r="M16" s="155">
-        <v>4.5439963625349876E-2</v>
+      <c r="M16" s="131">
+        <v>4.3910787943778853E-2</v>
       </c>
       <c r="N16" s="102">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="12.9" customHeight="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.95" customHeight="1">
       <c r="A17" s="114" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="114" t="s">
-        <v>172</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>159</v>
       </c>
       <c r="D17" s="115">
-        <v>295590</v>
+        <v>162585</v>
       </c>
       <c r="E17" s="116">
-        <v>13.67</v>
+        <v>31.75</v>
       </c>
       <c r="F17" s="117">
-        <v>5205107.76</v>
+        <v>5508005.1200000001</v>
       </c>
       <c r="G17" s="117">
-        <v>4040715.3</v>
-      </c>
-      <c r="H17" s="103">
+        <v>5162073.75</v>
+      </c>
+      <c r="H17" s="99">
+        <v>10</v>
+      </c>
+      <c r="I17" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="101">
+        <v>59.720022293390336</v>
+      </c>
+      <c r="K17" s="101">
+        <v>7203.7520202300002</v>
+      </c>
+      <c r="L17" s="100"/>
+      <c r="M17" s="131">
+        <v>4.3673598513017144E-2</v>
+      </c>
+      <c r="N17" s="102">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A18" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="115">
+        <v>360531</v>
+      </c>
+      <c r="E18" s="116">
+        <v>17.97</v>
+      </c>
+      <c r="F18" s="117">
+        <v>5202562.99</v>
+      </c>
+      <c r="G18" s="117">
+        <v>5154745.6500000004</v>
+      </c>
+      <c r="H18" s="103">
         <v>11</v>
-      </c>
-      <c r="I17" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="96">
-        <v>15.171933999207299</v>
-      </c>
-      <c r="K17" s="96">
-        <v>30685.726626265001</v>
-      </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="154">
-        <v>4.493263366715182E-2</v>
-      </c>
-      <c r="N17" s="97"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A18" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="115">
-        <v>470679</v>
-      </c>
-      <c r="E18" s="116">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F18" s="117">
-        <v>6372439.9400000004</v>
-      </c>
-      <c r="G18" s="117">
-        <v>3784259.16</v>
-      </c>
-      <c r="H18" s="103">
-        <v>12</v>
       </c>
       <c r="I18" s="93" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="96">
-        <v>4.5400783471068573</v>
+        <v>24.286962817725332</v>
       </c>
       <c r="K18" s="96">
-        <v>3351.6425000000004</v>
+        <v>7781.7436427499997</v>
       </c>
       <c r="L18" s="93"/>
-      <c r="M18" s="154">
-        <v>4.2080849036269317E-2</v>
+      <c r="M18" s="130">
+        <v>4.3611599302474442E-2</v>
       </c>
       <c r="N18" s="97"/>
     </row>
-    <row r="19" spans="1:14" ht="12.9" customHeight="1">
+    <row r="19" spans="1:14" ht="12.95" customHeight="1">
       <c r="A19" s="114" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="C19" s="114" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D19" s="115">
-        <v>227304</v>
+        <v>137238</v>
       </c>
       <c r="E19" s="116">
-        <v>20.56</v>
+        <v>36.4</v>
       </c>
       <c r="F19" s="117">
-        <v>4268363.66</v>
+        <v>4662286.75</v>
       </c>
       <c r="G19" s="117">
-        <v>3668265.49</v>
+        <v>4995463.2</v>
       </c>
       <c r="H19" s="103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="96">
-        <v>19.713479704487273</v>
+      <c r="J19" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="K19" s="96">
-        <v>3012.34650547</v>
+        <v>74317.284354359988</v>
       </c>
       <c r="L19" s="93"/>
-      <c r="M19" s="154">
-        <v>4.0791002884074806E-2</v>
+      <c r="M19" s="130">
+        <v>4.2263994035992201E-2</v>
       </c>
       <c r="N19" s="97"/>
     </row>
-    <row r="20" spans="1:14" ht="12.9" customHeight="1">
+    <row r="20" spans="1:14" ht="12.95" customHeight="1">
       <c r="A20" s="114" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B20" s="114" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D20" s="115">
-        <v>200282</v>
+        <v>1047870</v>
       </c>
       <c r="E20" s="116">
-        <v>22.62</v>
+        <v>4.29</v>
       </c>
       <c r="F20" s="117">
-        <v>4264560.16</v>
+        <v>7745484.1200000001</v>
       </c>
       <c r="G20" s="117">
-        <v>3556027.35</v>
+        <v>4495362.3</v>
       </c>
       <c r="H20" s="103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="96">
-        <v>11.492273755201719</v>
+      <c r="J20" s="96" t="s">
+        <v>63</v>
       </c>
       <c r="K20" s="96">
-        <v>4858.5365701300007</v>
+        <v>2119.4593516250002</v>
       </c>
       <c r="L20" s="93"/>
-      <c r="M20" s="154">
-        <v>3.9542918113513882E-2</v>
+      <c r="M20" s="130">
+        <v>3.8032902621887826E-2</v>
       </c>
       <c r="N20" s="97"/>
     </row>
-    <row r="21" spans="1:14" ht="12.9" customHeight="1">
+    <row r="21" spans="1:14" ht="12.95" customHeight="1">
       <c r="A21" s="114" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C21" s="114" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D21" s="115">
-        <v>929915</v>
+        <v>204282</v>
       </c>
       <c r="E21" s="116">
-        <v>3.71</v>
+        <v>26.12</v>
       </c>
       <c r="F21" s="117">
-        <v>7361031.9199999999</v>
+        <v>4345472.53</v>
       </c>
       <c r="G21" s="117">
-        <v>3449984.65</v>
+        <v>4245411.82</v>
       </c>
       <c r="H21" s="103">
         <v>15</v>
@@ -6102,39 +6348,39 @@
       <c r="I21" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="96" t="s">
-        <v>64</v>
+      <c r="J21" s="96">
+        <v>16.520418352226677</v>
       </c>
       <c r="K21" s="96">
-        <v>2016.8887672399999</v>
+        <v>5573.7200053100005</v>
       </c>
       <c r="L21" s="93"/>
-      <c r="M21" s="154">
-        <v>3.8363726451043703E-2</v>
+      <c r="M21" s="130">
+        <v>3.5918202708571809E-2</v>
       </c>
       <c r="N21" s="97"/>
     </row>
-    <row r="22" spans="1:14" ht="12.9" customHeight="1">
+    <row r="22" spans="1:14" ht="12.95" customHeight="1">
       <c r="A22" s="114" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C22" s="114" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D22" s="115">
-        <v>352421</v>
+        <v>231304</v>
       </c>
       <c r="E22" s="116">
-        <v>11.87</v>
+        <v>22.27</v>
       </c>
       <c r="F22" s="117">
-        <v>5204463.03</v>
+        <v>4334836.0199999996</v>
       </c>
       <c r="G22" s="117">
-        <v>3283545.74</v>
+        <v>4098452.54</v>
       </c>
       <c r="H22" s="103">
         <v>16</v>
@@ -6143,38 +6389,38 @@
         <v>18</v>
       </c>
       <c r="J22" s="96">
-        <v>16.454751236192653</v>
+        <v>25.212963589042442</v>
       </c>
       <c r="K22" s="96">
-        <v>5129.1691412499995</v>
+        <v>3204.7096620000002</v>
       </c>
       <c r="L22" s="93"/>
-      <c r="M22" s="154">
-        <v>3.6512930734010622E-2</v>
+      <c r="M22" s="130">
+        <v>3.46748573200093E-2</v>
       </c>
       <c r="N22" s="97"/>
     </row>
-    <row r="23" spans="1:14" ht="12.9" customHeight="1">
+    <row r="23" spans="1:14" ht="12.95" customHeight="1">
       <c r="A23" s="114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="114" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D23" s="115">
-        <v>52282</v>
+        <v>49725</v>
       </c>
       <c r="E23" s="116">
-        <v>41.36</v>
+        <v>53.49</v>
       </c>
       <c r="F23" s="117">
-        <v>2777569.76</v>
+        <v>2609976.9300000002</v>
       </c>
       <c r="G23" s="117">
-        <v>2162383.52</v>
+        <v>2659790.25</v>
       </c>
       <c r="H23" s="103">
         <v>17</v>
@@ -6183,38 +6429,38 @@
         <v>18</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="96">
-        <v>26481.485362200005</v>
+        <v>36008.986014180002</v>
       </c>
       <c r="L23" s="93"/>
-      <c r="M23" s="154">
-        <v>2.40456402736531E-2</v>
+      <c r="M23" s="130">
+        <v>2.2503090256573245E-2</v>
       </c>
       <c r="N23" s="97"/>
     </row>
-    <row r="24" spans="1:14" ht="12.9" customHeight="1">
+    <row r="24" spans="1:14" ht="12.95" customHeight="1">
       <c r="A24" s="114" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="114" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D24" s="115">
-        <v>208444</v>
+        <v>212344</v>
       </c>
       <c r="E24" s="116">
-        <v>8.4499999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="F24" s="117">
-        <v>3205652.72</v>
+        <v>3208420.58</v>
       </c>
       <c r="G24" s="117">
-        <v>1761351.8</v>
+        <v>1996033.6</v>
       </c>
       <c r="H24" s="103">
         <v>18</v>
@@ -6223,38 +6469,38 @@
         <v>18</v>
       </c>
       <c r="J24" s="96">
-        <v>0.58742673405488177</v>
+        <v>0.64292439427800763</v>
       </c>
       <c r="K24" s="96">
-        <v>1608.3904560449998</v>
+        <v>1807.0477622399999</v>
       </c>
       <c r="L24" s="93"/>
-      <c r="M24" s="154">
-        <v>1.9586179503509802E-2</v>
+      <c r="M24" s="130">
+        <v>1.6887393378463889E-2</v>
       </c>
       <c r="N24" s="97"/>
     </row>
-    <row r="25" spans="1:14" ht="12.9" customHeight="1">
+    <row r="25" spans="1:14" ht="12.95" customHeight="1">
       <c r="A25" s="114" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C25" s="114" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" s="115">
-        <v>52518</v>
+        <v>654087</v>
       </c>
       <c r="E25" s="116">
-        <v>19.57</v>
+        <v>2.34</v>
       </c>
       <c r="F25" s="117">
-        <v>1045472.55</v>
+        <v>895607.26</v>
       </c>
       <c r="G25" s="117">
-        <v>1027777.26</v>
+        <v>1530563.58</v>
       </c>
       <c r="H25" s="103">
         <v>19</v>
@@ -6262,803 +6508,807 @@
       <c r="I25" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="96">
-        <v>12.106008876125847</v>
+      <c r="J25" s="96" t="s">
+        <v>63</v>
       </c>
       <c r="K25" s="96">
-        <v>5521.0820307599997</v>
+        <v>937.47259229999997</v>
       </c>
       <c r="L25" s="93"/>
-      <c r="M25" s="154">
-        <v>1.1428852489312734E-2</v>
+      <c r="M25" s="130">
+        <v>1.2949295676290213E-2</v>
       </c>
       <c r="N25" s="97"/>
     </row>
-    <row r="26" spans="1:14" ht="12.9" customHeight="1">
+    <row r="26" spans="1:14" ht="12.95" customHeight="1">
       <c r="A26" s="114" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="B26" s="114" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C26" s="114" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D26" s="115">
-        <v>705767</v>
+        <v>61618</v>
       </c>
       <c r="E26" s="116">
-        <v>1.28</v>
+        <v>22.42</v>
       </c>
       <c r="F26" s="117">
-        <v>907585</v>
+        <v>1235148.71</v>
       </c>
       <c r="G26" s="117">
-        <v>903381.76</v>
+        <v>1381475.56</v>
       </c>
       <c r="H26" s="103">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="96" t="s">
-        <v>64</v>
+      <c r="J26" s="96">
+        <v>17.608290043632536</v>
       </c>
       <c r="K26" s="96">
-        <v>418.03742298999992</v>
+        <v>6678.3175106999997</v>
       </c>
       <c r="L26" s="93"/>
-      <c r="M26" s="154">
-        <v>1.0045578238008224E-2</v>
+      <c r="M26" s="130">
+        <v>1.1687940135102784E-2</v>
       </c>
       <c r="N26" s="97"/>
     </row>
-    <row r="27" spans="1:14" ht="12.9" customHeight="1">
+    <row r="27" spans="1:14" ht="12.95" customHeight="1">
       <c r="A27" s="114" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C27" s="114" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D27" s="115">
-        <v>6425</v>
+        <v>250000</v>
       </c>
       <c r="E27" s="116">
-        <v>64.040000000000006</v>
+        <v>2.67</v>
       </c>
       <c r="F27" s="117">
-        <v>470596.95</v>
+        <v>530625</v>
       </c>
       <c r="G27" s="117">
-        <v>411457</v>
+        <v>667500</v>
       </c>
       <c r="H27" s="103">
         <v>23</v>
       </c>
       <c r="I27" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="96">
+        <v>312.76784128000003</v>
+      </c>
+      <c r="L27" s="93"/>
+      <c r="M27" s="130">
+        <v>5.6473673990881951E-3</v>
+      </c>
+      <c r="N27" s="97"/>
+    </row>
+    <row r="28" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A28" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="115">
+        <v>5343</v>
+      </c>
+      <c r="E28" s="116">
+        <v>73.89</v>
+      </c>
+      <c r="F28" s="117">
+        <v>384953.23</v>
+      </c>
+      <c r="G28" s="117">
+        <v>394794.27</v>
+      </c>
+      <c r="H28" s="103">
+        <v>25</v>
+      </c>
+      <c r="I28" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="96">
+        <v>19.618171905296308</v>
+      </c>
+      <c r="K28" s="96">
+        <v>3825.2435041200001</v>
+      </c>
+      <c r="L28" s="93"/>
+      <c r="M28" s="130">
+        <v>3.3401472505540414E-3</v>
+      </c>
+      <c r="N28" s="97"/>
+    </row>
+    <row r="29" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A29" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="96">
-        <v>17.120974305648247</v>
-      </c>
-      <c r="K27" s="96">
-        <v>3267.0062984649999</v>
-      </c>
-      <c r="L27" s="93"/>
-      <c r="M27" s="154">
-        <v>4.5753895729266766E-3</v>
-      </c>
-      <c r="N27" s="97"/>
-    </row>
-    <row r="28" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A28" s="114" t="s">
+      <c r="C29" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="115">
+        <v>14443</v>
+      </c>
+      <c r="E29" s="116">
+        <v>22.58</v>
+      </c>
+      <c r="F29" s="117">
+        <v>373981.68</v>
+      </c>
+      <c r="G29" s="117">
+        <v>326122.94</v>
+      </c>
+      <c r="H29" s="103">
+        <v>27</v>
+      </c>
+      <c r="I29" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="96">
+        <v>13.663312224506042</v>
+      </c>
+      <c r="K29" s="96">
+        <v>2357.311377</v>
+      </c>
+      <c r="L29" s="93"/>
+      <c r="M29" s="130">
+        <v>2.7591551452446376E-3</v>
+      </c>
+      <c r="N29" s="97"/>
+    </row>
+    <row r="30" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A30" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B30" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="115">
-        <v>4508</v>
-      </c>
-      <c r="E28" s="116">
-        <v>76.77</v>
-      </c>
-      <c r="F28" s="117">
-        <v>359005.5</v>
-      </c>
-      <c r="G28" s="117">
-        <v>346079.16</v>
-      </c>
-      <c r="H28" s="103">
-        <v>24</v>
-      </c>
-      <c r="I28" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="96">
-        <v>21.228169186014526</v>
-      </c>
-      <c r="K28" s="96">
-        <v>4001.3818564799999</v>
-      </c>
-      <c r="L28" s="93"/>
-      <c r="M28" s="154">
-        <v>3.8483899412848068E-3</v>
-      </c>
-      <c r="N28" s="97"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A29" s="114" t="s">
+      <c r="C30" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="115">
+        <v>2935</v>
+      </c>
+      <c r="E30" s="116">
+        <v>98.85</v>
+      </c>
+      <c r="F30" s="117">
+        <v>285093.67</v>
+      </c>
+      <c r="G30" s="117">
+        <v>290124.75</v>
+      </c>
+      <c r="H30" s="103">
+        <v>29</v>
+      </c>
+      <c r="I30" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="96">
+        <v>19.731524655023254</v>
+      </c>
+      <c r="K30" s="96">
+        <v>12586.021052475</v>
+      </c>
+      <c r="L30" s="93"/>
+      <c r="M30" s="130">
+        <v>2.4545933405522289E-3</v>
+      </c>
+      <c r="N30" s="97"/>
+    </row>
+    <row r="31" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A31" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="115">
+        <v>4158</v>
+      </c>
+      <c r="E31" s="116">
+        <v>68.709999999999994</v>
+      </c>
+      <c r="F31" s="117">
+        <v>267647.83</v>
+      </c>
+      <c r="G31" s="117">
+        <v>285696.18</v>
+      </c>
+      <c r="H31" s="103">
+        <v>30</v>
+      </c>
+      <c r="I31" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="96">
+        <v>16.747370742351016</v>
+      </c>
+      <c r="K31" s="96">
+        <v>3932.4848150000003</v>
+      </c>
+      <c r="L31" s="93"/>
+      <c r="M31" s="130">
+        <v>2.4171255325483635E-3</v>
+      </c>
+      <c r="N31" s="97"/>
+    </row>
+    <row r="32" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A32" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="115">
+        <v>3623</v>
+      </c>
+      <c r="E32" s="116">
+        <v>76.91</v>
+      </c>
+      <c r="F32" s="117">
+        <v>279641.88</v>
+      </c>
+      <c r="G32" s="117">
+        <v>278644.93</v>
+      </c>
+      <c r="H32" s="103">
+        <v>31</v>
+      </c>
+      <c r="I32" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="96">
+        <v>20.763587951660156</v>
+      </c>
+      <c r="K32" s="96">
+        <v>4068.3729702599999</v>
+      </c>
+      <c r="L32" s="93"/>
+      <c r="M32" s="130">
+        <v>2.3574686046490068E-3</v>
+      </c>
+      <c r="N32" s="97"/>
+    </row>
+    <row r="33" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A33" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B33" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="115">
-        <v>14143</v>
-      </c>
-      <c r="E29" s="116">
-        <v>21.55</v>
-      </c>
-      <c r="F29" s="117">
-        <v>367178.43</v>
-      </c>
-      <c r="G29" s="117">
-        <v>304781.65000000002</v>
-      </c>
-      <c r="H29" s="103">
-        <v>25</v>
-      </c>
-      <c r="I29" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="96">
-        <v>13.664957130988599</v>
-      </c>
-      <c r="K29" s="96">
-        <v>2130.5027022599998</v>
-      </c>
-      <c r="L29" s="93"/>
-      <c r="M29" s="154">
-        <v>3.3891628613181642E-3</v>
-      </c>
-      <c r="N29" s="97"/>
-    </row>
-    <row r="30" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="C33" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="115">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="116">
+        <v>53.95</v>
+      </c>
+      <c r="F33" s="117">
+        <v>260187.43</v>
+      </c>
+      <c r="G33" s="117">
+        <v>226590</v>
+      </c>
+      <c r="H33" s="103">
+        <v>32</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="96">
+        <v>25.963592529296875</v>
+      </c>
+      <c r="K33" s="96">
+        <v>1632.801258365</v>
+      </c>
+      <c r="L33" s="93"/>
+      <c r="M33" s="130">
+        <v>1.9170591445084556E-3</v>
+      </c>
+      <c r="N33" s="97"/>
+    </row>
+    <row r="34" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A34" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B34" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="115">
-        <v>2835</v>
-      </c>
-      <c r="E30" s="116">
-        <v>95.43</v>
-      </c>
-      <c r="F30" s="117">
-        <v>276047.92</v>
-      </c>
-      <c r="G30" s="117">
-        <v>270544.05</v>
-      </c>
-      <c r="H30" s="103">
-        <v>27</v>
-      </c>
-      <c r="I30" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="96">
-        <v>19.818194710479339</v>
-      </c>
-      <c r="K30" s="96">
-        <v>11832.31844888</v>
-      </c>
-      <c r="L30" s="93"/>
-      <c r="M30" s="154">
-        <v>3.008441770069177E-3</v>
-      </c>
-      <c r="N30" s="97"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A31" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="114" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="115">
-        <v>4058</v>
-      </c>
-      <c r="E31" s="116">
-        <v>60.75</v>
-      </c>
-      <c r="F31" s="117">
-        <v>261612.08</v>
-      </c>
-      <c r="G31" s="117">
-        <v>246523.5</v>
-      </c>
-      <c r="H31" s="103">
-        <v>28</v>
-      </c>
-      <c r="I31" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="96">
-        <v>15.12472432330204</v>
-      </c>
-      <c r="K31" s="96">
-        <v>3381.4060035000002</v>
-      </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="154">
-        <v>2.7413339702116856E-3</v>
-      </c>
-      <c r="N31" s="97"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A32" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="114" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="115">
-        <v>8646</v>
-      </c>
-      <c r="E32" s="116">
-        <v>22.94</v>
-      </c>
-      <c r="F32" s="117">
-        <v>207816.75</v>
-      </c>
-      <c r="G32" s="117">
-        <v>198339.24</v>
-      </c>
-      <c r="H32" s="103">
-        <v>29</v>
-      </c>
-      <c r="I32" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="96">
-        <v>13.760474300164738</v>
-      </c>
-      <c r="K32" s="96">
-        <v>8637.6028302199993</v>
-      </c>
-      <c r="L32" s="93"/>
-      <c r="M32" s="154">
-        <v>2.2055264355648379E-3</v>
-      </c>
-      <c r="N32" s="97"/>
-    </row>
-    <row r="33" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A33" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="115">
-        <v>4100</v>
-      </c>
-      <c r="E33" s="116">
-        <v>45.99</v>
-      </c>
-      <c r="F33" s="117">
-        <v>255770.68</v>
-      </c>
-      <c r="G33" s="117">
-        <v>188559</v>
-      </c>
-      <c r="H33" s="103">
-        <v>30</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="96">
-        <v>22.208737864077669</v>
-      </c>
-      <c r="K33" s="96">
-        <v>1396.6655617500001</v>
-      </c>
-      <c r="L33" s="93"/>
-      <c r="M33" s="154">
-        <v>2.0967704583504014E-3</v>
-      </c>
-      <c r="N33" s="97"/>
-    </row>
-    <row r="34" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A34" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="119">
-        <v>4920009</v>
-      </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121">
-        <v>89198682.420000002</v>
-      </c>
-      <c r="G34" s="121">
-        <v>70323680.890000001</v>
-      </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
+      <c r="C34" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="115">
+        <v>8846</v>
+      </c>
+      <c r="E34" s="116">
+        <v>24.11</v>
+      </c>
+      <c r="F34" s="117">
+        <v>212316.25</v>
+      </c>
+      <c r="G34" s="117">
+        <v>213277.06</v>
+      </c>
+      <c r="H34" s="103">
+        <v>33</v>
+      </c>
+      <c r="I34" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="96">
+        <v>18.082367222120769</v>
+      </c>
+      <c r="K34" s="96">
+        <v>9420.3074524399999</v>
+      </c>
       <c r="L34" s="93"/>
-      <c r="M34" s="154"/>
+      <c r="M34" s="130">
+        <v>1.8044253417488793E-3</v>
+      </c>
       <c r="N34" s="97"/>
     </row>
-    <row r="35" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A35" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
+    <row r="35" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A35" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="119">
+        <v>5543778</v>
+      </c>
+      <c r="E35" s="120"/>
+      <c r="F35" s="121">
+        <v>94672424.200000003</v>
+      </c>
+      <c r="G35" s="121">
+        <v>90669035.450000003</v>
+      </c>
       <c r="H35" s="103"/>
       <c r="I35" s="93"/>
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
       <c r="L35" s="93"/>
-      <c r="M35" s="154"/>
+      <c r="M35" s="130"/>
       <c r="N35" s="97"/>
     </row>
-    <row r="36" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A36" s="114" t="s">
+    <row r="36" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A36" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="97"/>
+    </row>
+    <row r="37" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A37" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="115">
+        <v>399060.14</v>
+      </c>
+      <c r="E37" s="116">
+        <v>100</v>
+      </c>
+      <c r="F37" s="117">
+        <v>399060.14</v>
+      </c>
+      <c r="G37" s="117">
+        <v>399060.14</v>
+      </c>
+      <c r="H37" s="103">
+        <v>24</v>
+      </c>
+      <c r="I37" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="130">
+        <v>3.376238539193365E-3</v>
+      </c>
+      <c r="N37" s="97"/>
+    </row>
+    <row r="38" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A38" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="119">
+        <v>399060.14</v>
+      </c>
+      <c r="E38" s="120"/>
+      <c r="F38" s="121">
+        <v>399060.14</v>
+      </c>
+      <c r="G38" s="121">
+        <v>399060.14</v>
+      </c>
+      <c r="H38" s="103"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="97"/>
+    </row>
+    <row r="39" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A39" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="97"/>
+    </row>
+    <row r="40" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A40" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="C40" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="115">
+        <v>472481</v>
+      </c>
+      <c r="E40" s="116">
+        <v>22.02</v>
+      </c>
+      <c r="F40" s="117">
+        <v>11489718.970000001</v>
+      </c>
+      <c r="G40" s="117">
+        <v>10404031.619999999</v>
+      </c>
+      <c r="H40" s="99">
+        <v>3</v>
+      </c>
+      <c r="I40" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="101">
+        <v>11.547633366767267</v>
+      </c>
+      <c r="K40" s="101">
+        <v>48333.328991010007</v>
+      </c>
+      <c r="L40" s="100"/>
+      <c r="M40" s="131">
+        <v>8.8023054666473019E-2</v>
+      </c>
+      <c r="N40" s="102">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A41" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="115">
+        <v>1257548</v>
+      </c>
+      <c r="E41" s="116">
+        <v>7.68</v>
+      </c>
+      <c r="F41" s="117">
+        <v>13273025.310000001</v>
+      </c>
+      <c r="G41" s="117">
+        <v>9657968.6400000006</v>
+      </c>
+      <c r="H41" s="99">
+        <v>4</v>
+      </c>
+      <c r="I41" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="101">
+        <v>9.2842970260019175</v>
+      </c>
+      <c r="K41" s="101">
+        <v>20849.296108504997</v>
+      </c>
+      <c r="L41" s="100"/>
+      <c r="M41" s="131">
+        <v>8.1711007099553798E-2</v>
+      </c>
+      <c r="N41" s="102">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15">
+      <c r="A42" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="115">
-        <v>431091</v>
-      </c>
-      <c r="E36" s="116">
-        <v>19.59</v>
-      </c>
-      <c r="F36" s="117">
-        <v>10591845.23</v>
-      </c>
-      <c r="G36" s="117">
-        <v>8445072.6899999995</v>
-      </c>
-      <c r="H36" s="99">
-        <v>2</v>
-      </c>
-      <c r="I36" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="101">
-        <v>9.5708214756107406</v>
-      </c>
-      <c r="K36" s="101">
-        <v>42315.147777915001</v>
-      </c>
-      <c r="L36" s="100"/>
-      <c r="M36" s="155">
-        <v>9.3908956533571758E-2</v>
-      </c>
-      <c r="N36" s="102">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A37" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="115">
-        <v>1144110</v>
-      </c>
-      <c r="E37" s="116">
-        <v>6.18</v>
-      </c>
-      <c r="F37" s="117">
-        <v>12506801.68</v>
-      </c>
-      <c r="G37" s="117">
-        <v>7070599.7999999998</v>
-      </c>
-      <c r="H37" s="99">
-        <v>4</v>
-      </c>
-      <c r="I37" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="101">
-        <v>6.1196492568879002</v>
-      </c>
-      <c r="K37" s="101">
-        <v>16442.582000455001</v>
-      </c>
-      <c r="L37" s="100"/>
-      <c r="M37" s="155">
-        <v>7.8624858974953499E-2</v>
-      </c>
-      <c r="N37" s="102">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A38" s="114" t="s">
+      <c r="B42" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="115">
-        <v>97344</v>
-      </c>
-      <c r="E38" s="116">
-        <v>42.44</v>
-      </c>
-      <c r="F38" s="117">
-        <v>4967007.01</v>
-      </c>
-      <c r="G38" s="117">
-        <v>4131279.36</v>
-      </c>
-      <c r="H38" s="99">
-        <v>8</v>
-      </c>
-      <c r="I38" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="101">
-        <v>11.44665558616502</v>
-      </c>
-      <c r="K38" s="101">
-        <v>9273.5225920649991</v>
-      </c>
-      <c r="L38" s="100"/>
-      <c r="M38" s="155">
-        <v>4.5939703314298197E-2</v>
-      </c>
-      <c r="N38" s="102">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A39" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="115">
-        <v>70668</v>
-      </c>
-      <c r="E39" s="116">
-        <v>14.41</v>
-      </c>
-      <c r="F39" s="117">
-        <v>1720787.82</v>
-      </c>
-      <c r="G39" s="117">
-        <v>1018325.88</v>
-      </c>
-      <c r="H39" s="103">
-        <v>20</v>
-      </c>
-      <c r="I39" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="96">
-        <v>11.660939369107565</v>
-      </c>
-      <c r="K39" s="96">
-        <v>1599.7125220999999</v>
-      </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="154">
-        <v>1.132375342549375E-2</v>
-      </c>
-      <c r="N39" s="97"/>
-    </row>
-    <row r="40" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A40" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="114" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="115">
-        <v>24915</v>
-      </c>
-      <c r="E40" s="116">
-        <v>18.98</v>
-      </c>
-      <c r="F40" s="117">
-        <v>203040.21</v>
-      </c>
-      <c r="G40" s="117">
-        <v>472886.7</v>
-      </c>
-      <c r="H40" s="103">
-        <v>22</v>
-      </c>
-      <c r="I40" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="96">
-        <v>63.85513368932979</v>
-      </c>
-      <c r="K40" s="96">
-        <v>1344.19735216</v>
-      </c>
-      <c r="L40" s="93"/>
-      <c r="M40" s="154">
-        <v>5.2584860054773778E-3</v>
-      </c>
-      <c r="N40" s="97"/>
-    </row>
-    <row r="41" spans="1:14" ht="12.9" customHeight="1">
-      <c r="A41" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="115">
-        <v>13236</v>
-      </c>
-      <c r="E41" s="116">
-        <v>21.65</v>
-      </c>
-      <c r="F41" s="117">
-        <v>252451.32</v>
-      </c>
-      <c r="G41" s="117">
-        <v>286559.40000000002</v>
-      </c>
-      <c r="H41" s="103">
-        <v>26</v>
-      </c>
-      <c r="I41" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="96">
-        <v>18.388047705413193</v>
-      </c>
-      <c r="K41" s="96">
-        <v>22966.938673919998</v>
-      </c>
-      <c r="L41" s="93"/>
-      <c r="M41" s="154">
-        <v>3.1865319845916459E-3</v>
-      </c>
-      <c r="N41" s="97"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.4">
-      <c r="A42" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="114" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" s="114" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D42" s="115">
-        <v>4778</v>
+        <v>103244</v>
       </c>
       <c r="E42" s="116">
-        <v>13.82</v>
+        <v>43.36</v>
       </c>
       <c r="F42" s="117">
-        <v>130469.49</v>
+        <v>5234304.7300000004</v>
       </c>
       <c r="G42" s="117">
-        <v>66031.960000000006</v>
+        <v>4476659.84</v>
       </c>
       <c r="H42" s="103">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I42" s="93" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="96">
-        <v>5.6359286349673328</v>
+        <v>13.568890630659734</v>
       </c>
       <c r="K42" s="96">
-        <v>5918.3119405800007</v>
+        <v>9681.5429884799996</v>
       </c>
       <c r="L42" s="93"/>
-      <c r="M42" s="154">
-        <v>7.3427342654010361E-4</v>
+      <c r="M42" s="130">
+        <v>3.7874670917188574E-2</v>
       </c>
       <c r="N42" s="97"/>
     </row>
-    <row r="43" spans="1:14" ht="14.4">
-      <c r="A43" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="119">
-        <v>1786142</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121">
-        <v>30372402.760000002</v>
-      </c>
-      <c r="G43" s="121">
-        <v>21490755.789999999</v>
-      </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
+    <row r="43" spans="1:14" ht="15">
+      <c r="A43" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="115">
+        <v>72168</v>
+      </c>
+      <c r="E43" s="116">
+        <v>17.09</v>
+      </c>
+      <c r="F43" s="117">
+        <v>1744453.02</v>
+      </c>
+      <c r="G43" s="117">
+        <v>1233351.1200000001</v>
+      </c>
+      <c r="H43" s="103">
+        <v>21</v>
+      </c>
+      <c r="I43" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="96">
+        <v>8.9297451773369065</v>
+      </c>
+      <c r="K43" s="96">
+        <v>1934.2330981800001</v>
+      </c>
       <c r="L43" s="93"/>
-      <c r="M43" s="154"/>
+      <c r="M43" s="130">
+        <v>1.0434736938901743E-2</v>
+      </c>
       <c r="N43" s="97"/>
     </row>
-    <row r="44" spans="1:14" ht="14.4">
-      <c r="A44" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
+    <row r="44" spans="1:14" ht="15">
+      <c r="A44" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="115">
+        <v>25415</v>
+      </c>
+      <c r="E44" s="116">
+        <v>27.92</v>
+      </c>
+      <c r="F44" s="117">
+        <v>213908.96</v>
+      </c>
+      <c r="G44" s="117">
+        <v>709586.8</v>
+      </c>
+      <c r="H44" s="103">
+        <v>22</v>
+      </c>
+      <c r="I44" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="96">
+        <v>104.86775326034792</v>
+      </c>
+      <c r="K44" s="96">
+        <v>2062.0133392500002</v>
+      </c>
       <c r="L44" s="93"/>
-      <c r="M44" s="154"/>
+      <c r="M44" s="130">
+        <v>6.0034417395405477E-3</v>
+      </c>
       <c r="N44" s="97"/>
     </row>
-    <row r="45" spans="1:14" ht="14.4">
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="114"/>
+        <v>116</v>
+      </c>
+      <c r="B45" s="114" t="s">
+        <v>117</v>
+      </c>
       <c r="C45" s="114" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D45" s="115">
-        <v>-257494</v>
+        <v>13436</v>
       </c>
       <c r="E45" s="116">
-        <v>1.274</v>
+        <v>25.63</v>
       </c>
       <c r="F45" s="117">
-        <v>-202114.6</v>
+        <v>257342.82</v>
       </c>
       <c r="G45" s="117">
-        <v>-202114.6</v>
+        <v>344364.68</v>
       </c>
       <c r="H45" s="103">
-        <v>32</v>
-      </c>
-      <c r="I45" s="156" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
+        <v>26</v>
+      </c>
+      <c r="I45" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="96">
+        <v>20.443193720186443</v>
+      </c>
+      <c r="K45" s="96">
+        <v>26904.179605580004</v>
+      </c>
       <c r="L45" s="93"/>
-      <c r="M45" s="154">
-        <v>-2.2475083262072249E-3</v>
+      <c r="M45" s="130">
+        <v>2.913488939669571E-3</v>
       </c>
       <c r="N45" s="97"/>
     </row>
-    <row r="46" spans="1:14" ht="14.4">
+    <row r="46" spans="1:14" ht="15">
       <c r="A46" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="114"/>
+        <v>92</v>
+      </c>
+      <c r="B46" s="114" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" s="114" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D46" s="115">
-        <v>-1684023.42</v>
+        <v>16278</v>
       </c>
       <c r="E46" s="116">
-        <v>1</v>
+        <v>18.59</v>
       </c>
       <c r="F46" s="117">
-        <v>-1684023.42</v>
+        <v>313555.46000000002</v>
       </c>
       <c r="G46" s="117">
-        <v>-1684023.42</v>
+        <v>302608.02</v>
       </c>
       <c r="H46" s="103">
-        <v>33</v>
-      </c>
-      <c r="I46" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="96">
+        <v>7.3212469975058907</v>
+      </c>
+      <c r="K46" s="96">
+        <v>7563.1676552299996</v>
+      </c>
+      <c r="L46" s="93"/>
+      <c r="M46" s="130">
+        <v>2.5602077406001928E-3</v>
+      </c>
+      <c r="N46" s="97"/>
+    </row>
+    <row r="47" spans="1:14" ht="15">
+      <c r="A47" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="154">
-        <v>-1.8726290223358262E-2</v>
-      </c>
-      <c r="N46" s="97"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.4">
-      <c r="A47" s="118" t="s">
-        <v>144</v>
-      </c>
       <c r="D47" s="119">
-        <v>-1941517.42</v>
+        <v>1960570</v>
       </c>
       <c r="E47" s="120"/>
       <c r="F47" s="121">
-        <v>-1886138.02</v>
+        <v>32526309.27</v>
       </c>
       <c r="G47" s="121">
-        <v>-1886138.02</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.4">
+        <v>27128570.719999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15">
       <c r="A48" s="118" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D48" s="122">
-        <v>4764633.58</v>
+        <v>7903408.1399999997</v>
       </c>
       <c r="E48" s="120"/>
       <c r="F48" s="123">
-        <v>117684947.16</v>
+        <v>127597793.61</v>
       </c>
       <c r="G48" s="123">
-        <v>89928298.659999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.4">
+        <v>118196666.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="124"/>
       <c r="B49" s="124"/>
       <c r="C49" s="124"/>
@@ -7067,19 +7317,19 @@
       <c r="F49" s="114"/>
       <c r="G49" s="114"/>
     </row>
-    <row r="50" spans="1:7" ht="14.4">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="118" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D50" s="122">
-        <v>4764633.58</v>
+        <v>7903408.1399999997</v>
       </c>
       <c r="E50" s="120"/>
       <c r="F50" s="123">
-        <v>117684947.16</v>
+        <v>127597793.61</v>
       </c>
       <c r="G50" s="123">
-        <v>89928298.659999996</v>
+        <v>118196666.31</v>
       </c>
     </row>
   </sheetData>
@@ -7095,19 +7345,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA51A5-0F02-4258-94CC-E0CA8DDACA08}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="126" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="127"/>
-    <col min="3" max="3" width="19.88671875" style="127" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="126" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="127"/>
+    <col min="3" max="3" width="19.85546875" style="127" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7115,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="127" t="s">
         <v>45</v>
@@ -8155,6 +8405,48 @@
       <c r="C75" s="127">
         <f>'MLX Fact Sheet Backup'!D75</f>
         <v>5014.5504605279411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="126">
+        <f>'MLX Fact Sheet Backup'!A76</f>
+        <v>44227</v>
+      </c>
+      <c r="B76" s="127">
+        <f>'MLX Fact Sheet Backup'!B76</f>
+        <v>5279</v>
+      </c>
+      <c r="C76" s="127">
+        <f>'MLX Fact Sheet Backup'!D76</f>
+        <v>5307.5783391362338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="126">
+        <f>'MLX Fact Sheet Backup'!A77</f>
+        <v>44255</v>
+      </c>
+      <c r="B77" s="127">
+        <f>'MLX Fact Sheet Backup'!B77</f>
+        <v>5693</v>
+      </c>
+      <c r="C77" s="127">
+        <f>'MLX Fact Sheet Backup'!D77</f>
+        <v>5720.0656838778195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="126">
+        <f>'MLX Fact Sheet Backup'!A78</f>
+        <v>44286</v>
+      </c>
+      <c r="B78" s="127">
+        <f>'MLX Fact Sheet Backup'!B78</f>
+        <v>6037</v>
+      </c>
+      <c r="C78" s="127">
+        <f>'MLX Fact Sheet Backup'!D78</f>
+        <v>6115.2986640985773</v>
       </c>
     </row>
   </sheetData>
@@ -8166,45 +8458,47 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947E7FA-4825-4931-880F-742CAF23DF24}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="128"/>
-    <col min="3" max="3" width="9.109375" style="127"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="128"/>
+    <col min="3" max="3" width="9.140625" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="126">
         <f>'MLX Fact Sheet Backup'!R11</f>
-        <v>44133</v>
+        <v>44285</v>
       </c>
       <c r="B2" s="128">
         <f>'MLX Fact Sheet Backup'!S11</f>
-        <v>0.11</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="C2" s="127">
         <f>'MLX Fact Sheet Backup'!T11</f>
-        <v>10.79</v>
+        <v>14.82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8213,15 +8507,15 @@
     <row r="3" spans="1:4">
       <c r="A3" s="126">
         <f>'MLX Fact Sheet Backup'!R12</f>
-        <v>44162</v>
+        <v>44252</v>
       </c>
       <c r="B3" s="128">
         <f>'MLX Fact Sheet Backup'!S12</f>
-        <v>0.10920000000000001</v>
+        <v>0.1108</v>
       </c>
       <c r="C3" s="127">
         <f>'MLX Fact Sheet Backup'!T12</f>
-        <v>13.08</v>
+        <v>14.61</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8230,15 +8524,15 @@
     <row r="4" spans="1:4">
       <c r="A4" s="126">
         <f>'MLX Fact Sheet Backup'!R13</f>
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="B4" s="128">
         <f>'MLX Fact Sheet Backup'!S13</f>
-        <v>0.1125</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="C4" s="127">
         <f>'MLX Fact Sheet Backup'!T13</f>
-        <v>12.59</v>
+        <v>13.36</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8252,17 +8546,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42476C6B-1304-45A0-803F-AEE397CA1795}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.109375" style="127"/>
-    <col min="7" max="7" width="15.6640625" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="127"/>
+    <col min="7" max="7" width="15.7109375" style="127" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8295,7 +8591,7 @@
         <v>Since Inception*</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8305,27 +8601,27 @@
       </c>
       <c r="B2" s="127">
         <f>'MLX Fact Sheet Backup'!H15</f>
-        <v>19.739999999999998</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="C2" s="127">
         <f>'MLX Fact Sheet Backup'!I15</f>
-        <v>-29.4</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="D2" s="127">
         <f>'MLX Fact Sheet Backup'!J15</f>
-        <v>-29.4</v>
+        <v>82.57</v>
       </c>
       <c r="E2" s="127">
         <f>'MLX Fact Sheet Backup'!K15</f>
-        <v>-13.76</v>
+        <v>-3.6999999999999997</v>
       </c>
       <c r="F2" s="127">
         <f>'MLX Fact Sheet Backup'!L15</f>
-        <v>-1.8900000000000001</v>
+        <v>1.8800000000000001</v>
       </c>
       <c r="G2" s="127">
         <f>'MLX Fact Sheet Backup'!M15</f>
-        <v>-11.08</v>
+        <v>-7.9799999999999995</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -8338,27 +8634,27 @@
       </c>
       <c r="B3" s="127">
         <f>'MLX Fact Sheet Backup'!H16</f>
-        <v>19.52</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="C3" s="127">
         <f>'MLX Fact Sheet Backup'!I16</f>
-        <v>-29.830000000000002</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="D3" s="127">
         <f>'MLX Fact Sheet Backup'!J16</f>
-        <v>-29.830000000000002</v>
+        <v>81.089999999999989</v>
       </c>
       <c r="E3" s="127">
         <f>'MLX Fact Sheet Backup'!K16</f>
-        <v>-14.41</v>
+        <v>-4.43</v>
       </c>
       <c r="F3" s="127">
         <f>'MLX Fact Sheet Backup'!L16</f>
-        <v>-2.6100000000000003</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="G3" s="127">
         <f>'MLX Fact Sheet Backup'!M16</f>
-        <v>-11.709999999999999</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -8371,27 +8667,27 @@
       </c>
       <c r="B4" s="127">
         <f>'MLX Fact Sheet Backup'!H17</f>
-        <v>19.739999999999998</v>
+        <v>20.61</v>
       </c>
       <c r="C4" s="127">
         <f>'MLX Fact Sheet Backup'!I17</f>
-        <v>-29.189999999999998</v>
+        <v>20.61</v>
       </c>
       <c r="D4" s="127">
         <f>'MLX Fact Sheet Backup'!J17</f>
-        <v>-29.189999999999998</v>
+        <v>83.09</v>
       </c>
       <c r="E4" s="127">
         <f>'MLX Fact Sheet Backup'!K17</f>
-        <v>-13.530000000000001</v>
+        <v>-3.5000000000000004</v>
       </c>
       <c r="F4" s="127">
         <f>'MLX Fact Sheet Backup'!L17</f>
-        <v>-1.6199999999999999</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G4" s="127">
         <f>'MLX Fact Sheet Backup'!M17</f>
-        <v>-10.85</v>
+        <v>-7.7299999999999995</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -8404,27 +8700,27 @@
       </c>
       <c r="B5" s="127">
         <f>'MLX Fact Sheet Backup'!H18</f>
-        <v>32.448438185337189</v>
+        <v>21.951084394008618</v>
       </c>
       <c r="C5" s="127">
         <f>'MLX Fact Sheet Backup'!I18</f>
-        <v>-28.688077002763634</v>
+        <v>21.951084394008614</v>
       </c>
       <c r="D5" s="127">
         <f>'MLX Fact Sheet Backup'!J18</f>
-        <v>-28.688077002763634</v>
+        <v>103.13393935541293</v>
       </c>
       <c r="E5" s="127">
         <f>'MLX Fact Sheet Backup'!K18</f>
-        <v>-12.692786740579454</v>
+        <v>-2.9840649754766191</v>
       </c>
       <c r="F5" s="127">
         <f>'MLX Fact Sheet Backup'!L18</f>
-        <v>-5.946482222300375</v>
+        <v>-1.3022077738319093</v>
       </c>
       <c r="G5" s="127">
         <f>'MLX Fact Sheet Backup'!M18</f>
-        <v>-10.830341995654347</v>
+        <v>-7.5421033190901987</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -8437,27 +8733,27 @@
       </c>
       <c r="B6" s="127">
         <f>'MLX Fact Sheet Backup'!H19</f>
-        <v>12.839999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="C6" s="127">
         <f>'MLX Fact Sheet Backup'!I19</f>
-        <v>-33.520000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="D6" s="127">
         <f>'MLX Fact Sheet Backup'!J19</f>
-        <v>-33.520000000000003</v>
+        <v>72.05</v>
       </c>
       <c r="E6" s="127">
         <f>'MLX Fact Sheet Backup'!K19</f>
-        <v>-15.43</v>
+        <v>-5.6000000000000005</v>
       </c>
       <c r="F6" s="127">
         <f>'MLX Fact Sheet Backup'!L19</f>
-        <v>-3.05</v>
+        <v>0.67</v>
       </c>
       <c r="G6" s="127">
         <f>'MLX Fact Sheet Backup'!M19</f>
-        <v>-11.95</v>
+        <v>-8.85</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -8471,38 +8767,38 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E5728A-D618-40E8-BD51-C28F58D4DC97}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="127"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="127"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B2" s="127">
         <f>'MLX Fact Sheet Backup'!H6</f>
-        <v>-1.3313070130699822</v>
+        <v>-0.93149427058060175</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8510,11 +8806,11 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B3" s="127">
         <f>'MLX Fact Sheet Backup'!H7</f>
-        <v>0.87817368925640271</v>
+        <v>0.8798007797456453</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8522,11 +8818,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="127">
         <f>'MLX Fact Sheet Backup'!H8</f>
-        <v>0.83741098380809953</v>
+        <v>0.84026502624199717</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8540,26 +8836,28 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA396BC2-7843-410B-B829-C8BA78906B81}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8569,7 +8867,7 @@
       </c>
       <c r="B2">
         <f>'MLX Portfolio'!B4</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8582,7 +8880,7 @@
       </c>
       <c r="B3" t="str">
         <f>'MLX Portfolio'!B5</f>
-        <v>$12.8B</v>
+        <v>$14.8B</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8595,7 +8893,7 @@
       </c>
       <c r="B4" t="str">
         <f>'MLX Portfolio'!B6</f>
-        <v>$5.9B</v>
+        <v>$7.4B</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8609,26 +8907,28 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158814B2-F5F1-4B30-8019-A5AB82CC0003}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8638,7 +8938,7 @@
       </c>
       <c r="B2">
         <f>'MLX Portfolio'!E4*100</f>
-        <v>10.299999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8647,11 +8947,11 @@
     <row r="3" spans="1:3">
       <c r="A3" t="str">
         <f>'MLX Portfolio'!D5</f>
-        <v>Enterprise Products Partners L</v>
+        <v>Cheniere Energy Inc</v>
       </c>
       <c r="B3">
         <f>'MLX Portfolio'!E5*100</f>
-        <v>9.4</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8660,11 +8960,11 @@
     <row r="4" spans="1:3">
       <c r="A4" t="str">
         <f>'MLX Portfolio'!D6</f>
-        <v>Cheniere Energy Inc</v>
+        <v>Enterprise Products Partners L</v>
       </c>
       <c r="B4">
         <f>'MLX Portfolio'!E6*100</f>
-        <v>9</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8677,7 +8977,7 @@
       </c>
       <c r="B5">
         <f>'MLX Portfolio'!E7*100</f>
-        <v>7.9</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -8690,7 +8990,7 @@
       </c>
       <c r="B6">
         <f>'MLX Portfolio'!E8*100</f>
-        <v>7.5</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -8699,11 +8999,11 @@
     <row r="7" spans="1:3">
       <c r="A7" t="str">
         <f>'MLX Portfolio'!D9</f>
-        <v>Targa Resources Corp</v>
+        <v>ONEOK Inc</v>
       </c>
       <c r="B7">
         <f>'MLX Portfolio'!E9*100</f>
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -8712,11 +9012,11 @@
     <row r="8" spans="1:3">
       <c r="A8" t="str">
         <f>'MLX Portfolio'!D10</f>
-        <v>ONEOK Inc</v>
+        <v>Kinder Morgan Inc</v>
       </c>
       <c r="B8">
         <f>'MLX Portfolio'!E10*100</f>
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -8725,11 +9025,11 @@
     <row r="9" spans="1:3">
       <c r="A9" t="str">
         <f>'MLX Portfolio'!D11</f>
-        <v>Magellan Midstream Partners LP</v>
+        <v>Equitrans Midstream Corp</v>
       </c>
       <c r="B9">
         <f>'MLX Portfolio'!E11*100</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -8742,7 +9042,7 @@
       </c>
       <c r="B10">
         <f>'MLX Portfolio'!E12*100</f>
-        <v>4.5</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -8751,11 +9051,11 @@
     <row r="11" spans="1:3">
       <c r="A11" t="str">
         <f>'MLX Portfolio'!D13</f>
-        <v>Enbridge Inc</v>
+        <v>Targa Resources Corp</v>
       </c>
       <c r="B11">
         <f>'MLX Portfolio'!E13*100</f>
-        <v>4.5</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C11">
         <v>10</v>
